--- a/tl_result.xlsx
+++ b/tl_result.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\K_RRT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7601B8E3-1D86-4849-8C6F-7E519532D54E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0DE1B64C-8BBF-4D36-81C1-88B779136093}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="M3n3K3" sheetId="1" r:id="rId1"/>
     <sheet name="M3n3K5" sheetId="2" r:id="rId2"/>
     <sheet name="m5n3k3" sheetId="3" r:id="rId3"/>
     <sheet name="m5n3k5" sheetId="4" r:id="rId4"/>
+    <sheet name="compare" sheetId="5" r:id="rId5"/>
+    <sheet name="compare2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>t</t>
   </si>
@@ -49,15 +51,34 @@
   <si>
     <t>T</t>
   </si>
+  <si>
+    <t xml:space="preserve">M=3 K=3 ni=3 lamda_i = 3, 2 ,1  </t>
+  </si>
+  <si>
+    <t>%Diff</t>
+  </si>
+  <si>
+    <t>M=3 K=3</t>
+  </si>
+  <si>
+    <t>M=3 K=5</t>
+  </si>
+  <si>
+    <t>M=5 K=3</t>
+  </si>
+  <si>
+    <t>M=5 K=5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,13 +94,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -105,6 +148,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,20 +469,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025ED5A6-152D-40C6-BC16-6335AF24E08A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="A27" sqref="A27:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -442,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -453,7 +504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -464,7 +515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.5</v>
       </c>
@@ -475,7 +526,7 @@
         <v>2.9E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -486,7 +537,7 @@
         <v>5.7799999999999995E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -497,7 +548,7 @@
         <v>4.0410000000000003E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.25</v>
       </c>
@@ -508,7 +559,7 @@
         <v>1.5941E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1.5</v>
       </c>
@@ -519,7 +570,7 @@
         <v>4.3934000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1.75</v>
       </c>
@@ -530,7 +581,7 @@
         <v>9.4750000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -541,7 +592,7 @@
         <v>0.17105899999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2.25</v>
       </c>
@@ -552,7 +603,7 @@
         <v>0.269984</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2.5</v>
       </c>
@@ -563,7 +614,7 @@
         <v>0.38381199999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2.75</v>
       </c>
@@ -574,7 +625,7 @@
         <v>0.50229900000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -585,7 +636,7 @@
         <v>0.61542200000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3.25</v>
       </c>
@@ -596,7 +647,7 @@
         <v>0.71552000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3.5</v>
       </c>
@@ -607,7 +658,7 @@
         <v>0.79829399999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3.75</v>
       </c>
@@ -618,7 +669,7 @@
         <v>0.86269300000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -629,7 +680,7 @@
         <v>0.91010100000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4.25</v>
       </c>
@@ -640,7 +691,7 @@
         <v>0.94328299999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4.5</v>
       </c>
@@ -651,7 +702,7 @@
         <v>0.96545499999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4.75</v>
       </c>
@@ -662,7 +713,7 @@
         <v>0.97965000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -673,7 +724,7 @@
         <v>0.98838599999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5.25</v>
       </c>
@@ -684,7 +735,7 @@
         <v>0.99356699999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>5.5</v>
       </c>
@@ -695,7 +746,7 @@
         <v>0.99653700000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>5.75</v>
       </c>
@@ -706,7 +757,7 @@
         <v>0.99818499999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -717,7 +768,7 @@
         <v>0.99907299999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>6.25</v>
       </c>
@@ -728,7 +779,7 @@
         <v>0.99953800000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6.5</v>
       </c>
@@ -739,7 +790,7 @@
         <v>0.99977499999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>6.75</v>
       </c>
@@ -750,7 +801,7 @@
         <v>0.99989300000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>7</v>
       </c>
@@ -761,7 +812,7 @@
         <v>0.99995000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>7.25</v>
       </c>
@@ -772,7 +823,7 @@
         <v>0.999977</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>7.5</v>
       </c>
@@ -783,7 +834,7 @@
         <v>0.99999000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>7.75</v>
       </c>
@@ -794,7 +845,7 @@
         <v>0.99999499999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -805,7 +856,7 @@
         <v>0.99999800000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>8.25</v>
       </c>
@@ -816,7 +867,7 @@
         <v>0.99999899999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>8.5</v>
       </c>
@@ -827,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>8.75</v>
       </c>
@@ -838,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>9</v>
       </c>
@@ -849,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>9.25</v>
       </c>
@@ -860,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>9.5</v>
       </c>
@@ -871,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>9.75</v>
       </c>
@@ -882,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>10</v>
       </c>
@@ -900,14 +951,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2498BBA-8CB5-48FB-86A5-DFC5502C2A5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -918,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -929,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.25</v>
       </c>
@@ -940,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.5</v>
       </c>
@@ -951,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.75</v>
       </c>
@@ -962,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -973,7 +1026,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1.25</v>
       </c>
@@ -984,7 +1037,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1.5</v>
       </c>
@@ -995,7 +1048,7 @@
         <v>7.3999999999999996E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1.75</v>
       </c>
@@ -1006,7 +1059,7 @@
         <v>3.79E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -1017,7 +1070,7 @@
         <v>1.42E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2.25</v>
       </c>
@@ -1028,7 +1081,7 @@
         <v>4.2259999999999997E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2.5</v>
       </c>
@@ -1039,7 +1092,7 @@
         <v>1.0484E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2.75</v>
       </c>
@@ -1050,7 +1103,7 @@
         <v>2.2485000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -1061,7 +1114,7 @@
         <v>4.2809E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3.25</v>
       </c>
@@ -1072,7 +1125,7 @@
         <v>7.3833999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>3.5</v>
       </c>
@@ -1083,7 +1136,7 @@
         <v>0.117192</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>3.75</v>
       </c>
@@ -1094,7 +1147,7 @@
         <v>0.17333399999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -1105,7 +1158,7 @@
         <v>0.241313</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4.25</v>
       </c>
@@ -1116,7 +1169,7 @@
         <v>0.31884800000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4.5</v>
       </c>
@@ -1127,7 +1180,7 @@
         <v>0.40261799999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4.75</v>
       </c>
@@ -1138,7 +1191,7 @@
         <v>0.48874200000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -1149,7 +1202,7 @@
         <v>0.57330599999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>5.25</v>
       </c>
@@ -1160,7 +1213,7 @@
         <v>0.65284600000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>5.5</v>
       </c>
@@ -1171,7 +1224,7 @@
         <v>0.72470000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>5.75</v>
       </c>
@@ -1182,7 +1235,7 @@
         <v>0.78718100000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>6</v>
       </c>
@@ -1193,7 +1246,7 @@
         <v>0.839584</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>6.25</v>
       </c>
@@ -1204,7 +1257,7 @@
         <v>0.88205299999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>6.5</v>
       </c>
@@ -1215,7 +1268,7 @@
         <v>0.91536700000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>6.75</v>
       </c>
@@ -1226,7 +1279,7 @@
         <v>0.94070100000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>7</v>
       </c>
@@ -1237,7 +1290,7 @@
         <v>0.95940499999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>7.25</v>
       </c>
@@ -1248,7 +1301,7 @@
         <v>0.97282999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>7.5</v>
       </c>
@@ -1259,7 +1312,7 @@
         <v>0.982209</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>7.75</v>
       </c>
@@ -1270,7 +1323,7 @@
         <v>0.98859600000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>8</v>
       </c>
@@ -1281,7 +1334,7 @@
         <v>0.99283900000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>8.25</v>
       </c>
@@ -1292,7 +1345,7 @@
         <v>0.99559299999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>8.5</v>
       </c>
@@ -1303,7 +1356,7 @@
         <v>0.99733899999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>8.75</v>
       </c>
@@ -1314,7 +1367,7 @@
         <v>0.99842399999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>9</v>
       </c>
@@ -1325,7 +1378,7 @@
         <v>0.99908300000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>9.25</v>
       </c>
@@ -1336,7 +1389,7 @@
         <v>0.99947600000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>9.5</v>
       </c>
@@ -1347,7 +1400,7 @@
         <v>0.99970599999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>9.75</v>
       </c>
@@ -1358,7 +1411,7 @@
         <v>0.99983699999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>10</v>
       </c>
@@ -1375,16 +1428,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7681E6C-0C96-471F-8226-BCB56BDB44A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G25" activeCellId="1" sqref="A1:C1 G25:G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="B2:C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1406,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -1417,7 +1470,7 @@
         <v>7.9999999999999996E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.5</v>
       </c>
@@ -1428,7 +1481,7 @@
         <v>1.405E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -1439,7 +1492,7 @@
         <v>1.9098E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1450,7 +1503,7 @@
         <v>9.1470999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.25</v>
       </c>
@@ -1461,7 +1514,7 @@
         <v>0.246807</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1.5</v>
       </c>
@@ -1472,7 +1525,7 @@
         <v>0.46173500000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1.75</v>
       </c>
@@ -1483,7 +1536,7 @@
         <v>0.67399600000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1494,7 +1547,7 @@
         <v>0.83291499999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2.25</v>
       </c>
@@ -1505,7 +1558,7 @@
         <v>0.92698899999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2.5</v>
       </c>
@@ -1516,7 +1569,7 @@
         <v>0.97247899999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2.75</v>
       </c>
@@ -1527,7 +1580,7 @@
         <v>0.99093299999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1538,7 +1591,7 @@
         <v>0.99735499999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3.25</v>
       </c>
@@ -1549,7 +1602,7 @@
         <v>0.99930799999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3.5</v>
       </c>
@@ -1560,7 +1613,7 @@
         <v>0.99983599999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3.75</v>
       </c>
@@ -1571,7 +1624,7 @@
         <v>0.99996399999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -1582,7 +1635,7 @@
         <v>0.99999300000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4.25</v>
       </c>
@@ -1593,7 +1646,7 @@
         <v>0.99999899999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4.5</v>
       </c>
@@ -1604,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4.75</v>
       </c>
@@ -1615,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -1626,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5.25</v>
       </c>
@@ -1637,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>5.5</v>
       </c>
@@ -1648,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>5.75</v>
       </c>
@@ -1659,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -1670,7 +1723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>6.25</v>
       </c>
@@ -1681,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6.5</v>
       </c>
@@ -1692,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>6.75</v>
       </c>
@@ -1703,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>7</v>
       </c>
@@ -1714,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>7.25</v>
       </c>
@@ -1725,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>7.5</v>
       </c>
@@ -1736,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>7.75</v>
       </c>
@@ -1747,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -1758,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>8.25</v>
       </c>
@@ -1769,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>8.5</v>
       </c>
@@ -1780,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>8.75</v>
       </c>
@@ -1791,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>9</v>
       </c>
@@ -1802,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>9.25</v>
       </c>
@@ -1813,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>9.5</v>
       </c>
@@ -1824,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>9.75</v>
       </c>
@@ -1835,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>10</v>
       </c>
@@ -1852,19 +1905,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F2D57F-D643-4F72-90E2-6ABFFB945CC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="B2:C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1886,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -1897,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.5</v>
       </c>
@@ -1908,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
@@ -1919,7 +1973,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1930,7 +1984,7 @@
         <v>2.4699999999999999E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.25</v>
       </c>
@@ -1941,7 +1995,7 @@
         <v>2.294E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1.5</v>
       </c>
@@ -1952,7 +2006,7 @@
         <v>1.1719E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1.75</v>
       </c>
@@ -1963,7 +2017,7 @@
         <v>3.9802999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1974,7 +2028,7 @@
         <v>0.100537</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2.25</v>
       </c>
@@ -1985,7 +2039,7 @@
         <v>0.20271500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2.5</v>
       </c>
@@ -1996,7 +2050,7 @@
         <v>0.34229599999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2.75</v>
       </c>
@@ -2007,7 +2061,7 @@
         <v>0.50137299999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -2018,7 +2072,7 @@
         <v>0.65541099999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3.25</v>
       </c>
@@ -2029,7 +2083,7 @@
         <v>0.78385899999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3.5</v>
       </c>
@@ -2040,7 +2094,7 @@
         <v>0.87710699999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3.75</v>
       </c>
@@ -2051,7 +2105,7 @@
         <v>0.93659800000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -2062,7 +2116,7 @@
         <v>0.97024600000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4.25</v>
       </c>
@@ -2073,7 +2127,7 @@
         <v>0.98725300000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4.5</v>
       </c>
@@ -2084,7 +2138,7 @@
         <v>0.99499400000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4.75</v>
       </c>
@@ -2095,7 +2149,7 @@
         <v>0.99819000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -2106,7 +2160,7 @@
         <v>0.999394</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5.25</v>
       </c>
@@ -2117,7 +2171,7 @@
         <v>0.99981200000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>5.5</v>
       </c>
@@ -2128,7 +2182,7 @@
         <v>0.99994499999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>5.75</v>
       </c>
@@ -2139,7 +2193,7 @@
         <v>0.99998500000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -2150,7 +2204,7 @@
         <v>0.999996</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>6.25</v>
       </c>
@@ -2161,7 +2215,7 @@
         <v>0.99999899999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>6.5</v>
       </c>
@@ -2172,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>6.75</v>
       </c>
@@ -2183,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>7</v>
       </c>
@@ -2194,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>7.25</v>
       </c>
@@ -2205,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>7.5</v>
       </c>
@@ -2216,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>7.75</v>
       </c>
@@ -2227,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -2238,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>8.25</v>
       </c>
@@ -2249,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>8.5</v>
       </c>
@@ -2260,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>8.75</v>
       </c>
@@ -2271,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>9</v>
       </c>
@@ -2282,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>9.25</v>
       </c>
@@ -2293,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>9.5</v>
       </c>
@@ -2304,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>9.75</v>
       </c>
@@ -2315,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>10</v>
       </c>
@@ -2329,4 +2383,2937 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.7799999999999995E-4</v>
+      </c>
+      <c r="F8" s="7">
+        <f>(D8-E8)/E8</f>
+        <v>-0.65397923875432529</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.8E-3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.0410000000000003E-3</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" ref="F9:F37" si="0">(D9-E9)/E9</f>
+        <v>-5.9638703291264618E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.5941E-2</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>1.624741233297778E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.3934000000000001E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.67068784995675E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9.4750000000000001E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6385224274406358E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.17105899999999999</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>-2.6651623124185106E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.26650000000000001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.269984</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.2904468412942941E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.38590000000000002</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.38381199999999999</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>5.4401634133378696E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.50229900000000005</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>9.3589674675839587E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.61070000000000002</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.61542200000000002</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>-7.6727838783793943E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.71030000000000004</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.71552000000000004</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>-7.2953935599284463E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.79849999999999999</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.79829399999999995</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5805029224826878E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.86269300000000004</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>-2.1942915961993821E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.91010100000000005</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>-2.9678024746704642E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.94328299999999998</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>-4.222486782863636E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.96309999999999996</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.96545499999999995</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>-2.4392643882935982E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.97965000000000002</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>-5.1038636247633838E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.98838599999999999</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
+        <v>9.2473992954166732E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.99356699999999998</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
+        <v>4.3580352407036134E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.99653700000000001</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1670414645919068E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.99818499999999999</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="0"/>
+        <v>4.157545945892337E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.99907299999999999</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="0"/>
+        <v>3.2730341026127843E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.99953800000000004</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6207487859390586E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.99977499999999997</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="0"/>
+        <v>1.250281313295909E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.99989300000000003</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0701145022514232E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="0"/>
+        <v>5.0002500125000746E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>7.25</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.999977</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3000529012162526E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0000100000954499E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.99999499999999997</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="0"/>
+        <v>5.000025000157757E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.99999800000000005</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0000039999544889E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:N44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.4E-3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.405E-3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5.7799999999999995E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1.95E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1.9098E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.8E-3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.0410000000000003E-3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>9.1470999999999997E-2</v>
+      </c>
+      <c r="M8" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2.4699999999999999E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.5941E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.2472</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.246807</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2.294E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.3934000000000001E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.46589999999999998</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.46173500000000001</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1.1719E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9.4750000000000001E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3.79E-4</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.67689999999999995</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.67399600000000004</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3.9802999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.17105899999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.4E-3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.42E-3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.83291499999999996</v>
+      </c>
+      <c r="M12" s="2">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.100537</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.26650000000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.269984</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4.2259999999999997E-3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.92698899999999995</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.2024</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.20271500000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.38590000000000002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.38381199999999999</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.04E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.0484E-2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.97247899999999998</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.3427</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.34229599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.50229900000000005</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.23E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.2485000000000002E-2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.99093299999999995</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.50570000000000004</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.50137299999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.61070000000000002</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.61542200000000002</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4.2809E-2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.998</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.99735499999999999</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.65110000000000001</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.65541099999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.71030000000000004</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.71552000000000004</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>7.3833999999999997E-2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.99930799999999997</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.78459999999999996</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.78385899999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.79849999999999999</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.79829399999999995</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.1169</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.117192</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.99983599999999995</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.87710699999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.86269300000000004</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.17469999999999999</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.17333399999999999</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.99996399999999996</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.93659800000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.91010100000000005</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.241313</v>
+      </c>
+      <c r="J20" s="1">
+        <v>4</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.99999300000000002</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.9718</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.97024600000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.94328299999999998</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.31879999999999997</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.31884800000000002</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.98725300000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.96309999999999996</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.96545499999999995</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.40060000000000001</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.40261799999999998</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.99499400000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.97965000000000002</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.4869</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.48874200000000001</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.99819000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.98838599999999999</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.57250000000000001</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.57330599999999998</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.999394</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.99356699999999998</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.65284600000000004</v>
+      </c>
+      <c r="J25" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.99981200000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.99653700000000001</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.72309999999999997</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.72470000000000001</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.99994499999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.99818499999999999</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.78718100000000002</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.99998500000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.99907299999999999</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.839584</v>
+      </c>
+      <c r="J28" s="1">
+        <v>6</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.999996</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.99953800000000004</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.88205299999999998</v>
+      </c>
+      <c r="J29" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.99999899999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.99977499999999997</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.91536700000000004</v>
+      </c>
+      <c r="J30" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.99989300000000003</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.94310000000000005</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.94070100000000001</v>
+      </c>
+      <c r="J31" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.95940499999999995</v>
+      </c>
+      <c r="J32" s="1">
+        <v>7</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>7.25</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.999977</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.97282999999999997</v>
+      </c>
+      <c r="J33" s="1">
+        <v>7.25</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.982209</v>
+      </c>
+      <c r="J34" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.99999499999999997</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.98859600000000003</v>
+      </c>
+      <c r="J35" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.99999800000000005</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.99319999999999997</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.99283900000000003</v>
+      </c>
+      <c r="J36" s="1">
+        <v>8</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.99559299999999995</v>
+      </c>
+      <c r="J37" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.99733899999999998</v>
+      </c>
+      <c r="J38" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>8.75</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.99842399999999998</v>
+      </c>
+      <c r="J39" s="1">
+        <v>8.75</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.99908300000000005</v>
+      </c>
+      <c r="J40" s="1">
+        <v>9</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.99947600000000003</v>
+      </c>
+      <c r="J41" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.99970599999999998</v>
+      </c>
+      <c r="J42" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.99983699999999998</v>
+      </c>
+      <c r="J43" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>10</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.99991200000000002</v>
+      </c>
+      <c r="J44" s="1">
+        <v>10</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1</v>
+      </c>
+      <c r="N44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AP12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AP12" sqref="B12:AP12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.8E-3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.26650000000000001</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.38590000000000002</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.61070000000000002</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.71030000000000004</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.79849999999999999</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.96309999999999996</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5.7799999999999995E-4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4.0410000000000003E-3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.5941E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4.3934000000000001E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>9.4750000000000001E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.17105899999999999</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.269984</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.38381199999999999</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.50229900000000005</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.61542200000000002</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.71552000000000004</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.79829399999999995</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.86269300000000004</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.91010100000000005</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.94328299999999998</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.96545499999999995</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.97965000000000002</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.98838599999999999</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.99356699999999998</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.99653700000000001</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0.99818499999999999</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0.99907299999999999</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0.99953800000000004</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.99977499999999997</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.99989300000000003</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.999977</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.99999499999999997</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.99999800000000005</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.4E-3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1.04E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2.23E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.1169</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.17469999999999999</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.31879999999999997</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.40060000000000001</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.4869</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.57250000000000001</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.72309999999999997</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.94310000000000005</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.99319999999999997</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3.79E-4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.42E-3</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4.2259999999999997E-3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.0484E-2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2.2485000000000002E-2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>4.2809E-2</v>
+      </c>
+      <c r="O6" s="2">
+        <v>7.3833999999999997E-2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.117192</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.17333399999999999</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.241313</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.31884800000000002</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.40261799999999998</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.48874200000000001</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.57330599999999998</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.65284600000000004</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.72470000000000001</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.78718100000000002</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.839584</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.88205299999999998</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.91536700000000004</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.94070100000000001</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.95940499999999995</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.97282999999999997</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.982209</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.98859600000000003</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.99283900000000003</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.99559299999999995</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.99733899999999998</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.99842399999999998</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.99908300000000005</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0.99947600000000003</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>0.99970599999999998</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0.99983699999999998</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>0.99991200000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.4E-3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.95E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.2472</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.46589999999999998</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.67689999999999995</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.998</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.405E-3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.9098E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9.1470999999999997E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.246807</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.46173500000000001</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.67399600000000004</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.83291499999999996</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.92698899999999995</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.97247899999999998</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.99093299999999995</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.99735499999999999</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.99930799999999997</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.99983599999999995</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.99996399999999996</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.99999300000000002</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1</v>
+      </c>
+      <c r="X9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.2024</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.3427</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.50570000000000004</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.65110000000000001</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.78459999999999996</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.9718</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2.4699999999999999E-4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2.294E-3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.1719E-2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3.9802999999999998E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.100537</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.20271500000000001</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.34229599999999999</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.50137299999999996</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.65541099999999997</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.78385899999999997</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.87710699999999997</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.93659800000000004</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.97024600000000005</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.98725300000000005</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0.99499400000000005</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0.99819000000000002</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0.999394</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0.99981200000000003</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0.99994499999999997</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0.99998500000000001</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0.999996</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>